--- a/.FileQuanTrong/22-23/TKB-HK1-22-23.xlsx
+++ b/.FileQuanTrong/22-23/TKB-HK1-22-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\.FileQuanTrong\22-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0AF383-5129-4F30-B826-863EA2B484E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415E71AF-ACB1-4909-A420-F9AB5D9FC95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Hai</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>AjaxPro.timeoutPeriod=1000000</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -377,18 +380,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -398,25 +389,37 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,63 +699,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D10:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="10" spans="4:10" ht="15.6">
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="4:10" ht="15.6">
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <v>1</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="4:10" ht="15.6">
-      <c r="D12" s="13">
+      <c r="D12" s="9">
         <v>2</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="17"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="4:10" ht="15.6">
-      <c r="D13" s="13">
+      <c r="D13" s="9">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
@@ -763,10 +766,10 @@
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="4:10" ht="15.6">
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <v>4</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="17"/>
@@ -776,49 +779,49 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="4:10" ht="15.6">
-      <c r="D15" s="13">
+      <c r="D15" s="9">
         <v>5</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="18"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="4:10" ht="15.6">
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="4:15" ht="15.6">
-      <c r="D17" s="13">
+      <c r="D17" s="9">
         <v>6</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="4:15" ht="15.6">
-      <c r="D18" s="13">
+      <c r="D18" s="9">
         <v>7</v>
       </c>
-      <c r="E18" s="18"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -826,11 +829,11 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="4:15" ht="15.6">
-      <c r="D19" s="13">
+      <c r="D19" s="9">
         <v>8</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="1"/>
@@ -839,7 +842,7 @@
       <c r="J19" s="17"/>
     </row>
     <row r="20" spans="4:15" ht="15.6">
-      <c r="D20" s="13">
+      <c r="D20" s="9">
         <v>9</v>
       </c>
       <c r="E20" s="1"/>
@@ -850,15 +853,15 @@
       <c r="J20" s="17"/>
     </row>
     <row r="21" spans="4:15" ht="15.6">
-      <c r="D21" s="13">
+      <c r="D21" s="9">
         <v>10</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="23" spans="4:15" ht="15.6">
       <c r="H23" s="2"/>
@@ -872,202 +875,207 @@
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8" t="s">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="4:15">
-      <c r="D26" s="5">
-        <v>841110</v>
+      <c r="D26" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E26" s="6">
+        <v>12</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26">
         <v>1</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="10"/>
-      <c r="K26">
-        <v>4</v>
       </c>
     </row>
     <row r="27" spans="4:15">
       <c r="D27" s="5">
-        <v>841429</v>
+        <v>862408</v>
       </c>
       <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="14"/>
       <c r="K27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="4:15" ht="15.6">
       <c r="D28" s="5">
-        <v>841111</v>
+        <v>861304</v>
       </c>
       <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="14"/>
       <c r="K28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="4:15">
       <c r="D29" s="5">
-        <v>841047</v>
+        <v>841110</v>
       </c>
       <c r="E29" s="6">
-        <v>5</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="14"/>
       <c r="K29">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="4:15">
       <c r="D30" s="5">
-        <v>861304</v>
+        <v>841047</v>
       </c>
       <c r="E30" s="6">
-        <v>13</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="14"/>
       <c r="K30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="4:15">
       <c r="D31" s="5">
-        <v>862408</v>
+        <v>841429</v>
       </c>
       <c r="E31" s="6">
-        <v>8</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="14"/>
       <c r="K31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="4:15">
-      <c r="D32" s="19" t="s">
-        <v>28</v>
+      <c r="D32" s="5">
+        <v>841111</v>
       </c>
       <c r="E32" s="6">
-        <v>12</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="14"/>
       <c r="K32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="4:11">
-      <c r="K33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13">
+      <c r="K34">
         <f>SUM(K26:K32)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="4:11">
-      <c r="D36" s="20" t="s">
+    <row r="35" spans="4:13">
+      <c r="M35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13">
+      <c r="D36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="J11:J15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="D36:J36"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="I32:J32"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="I17:I21"/>
     <mergeCell ref="J17:J21"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I11:I12"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="J11:J15"/>
+    <mergeCell ref="F11:F15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/.FileQuanTrong/22-23/TKB-HK1-22-23.xlsx
+++ b/.FileQuanTrong/22-23/TKB-HK1-22-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\.FileQuanTrong\22-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415E71AF-ACB1-4909-A420-F9AB5D9FC95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A176404-2246-48BC-A46A-36DEE2518CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Hai</t>
   </si>
@@ -67,12 +67,6 @@
     <t>Giảng Viên</t>
   </si>
   <si>
-    <t>Cơ sở trí tuệ nhân tạo</t>
-  </si>
-  <si>
-    <t>NGÀI TRIỀU</t>
-  </si>
-  <si>
     <t>Cơ sở dữ liệu nâng cao</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>Công nghệ phần mềm</t>
   </si>
   <si>
-    <t>CSTTNT</t>
-  </si>
-  <si>
     <t>CSDLNC</t>
   </si>
   <si>
@@ -136,19 +127,32 @@
     <t>AjaxPro.timeoutPeriod=1000000</t>
   </si>
   <si>
-    <t>D</t>
+    <t>Thương mại điện tử</t>
+  </si>
+  <si>
+    <t>Phạm Thi Vương</t>
+  </si>
+  <si>
+    <t>TMĐT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -352,20 +356,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -374,52 +415,85 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D10:O36"/>
+  <dimension ref="D10:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -731,16 +805,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="15" t="s">
-        <v>21</v>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>20</v>
+      <c r="I11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="4:10" ht="15.6">
@@ -748,308 +822,317 @@
         <v>2</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="17"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="4:10" ht="15.6">
       <c r="D13" s="9">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="17"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="17"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="4:10" ht="15.6">
       <c r="D14" s="9">
         <v>4</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="17"/>
+      <c r="E14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="19"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="17"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="4:10" ht="15.6">
       <c r="D15" s="9">
         <v>5</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="16"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="4:10" ht="15.6">
       <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="4:15" ht="15.6">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="4:11" ht="15.6">
       <c r="D17" s="9">
         <v>6</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>26</v>
+      <c r="E17" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="4:15" ht="15.6">
+      <c r="I17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" ht="15.6">
       <c r="D18" s="9">
         <v>7</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="4:15" ht="15.6">
+      <c r="I18" s="12"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="4:11" ht="15.6">
       <c r="D19" s="9">
         <v>8</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="15" t="s">
-        <v>19</v>
+      <c r="E19" s="30"/>
+      <c r="F19" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="4:15" ht="15.6">
+      <c r="I19" s="1"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="4:11" ht="15.6">
       <c r="D20" s="9">
         <v>9</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="4:15" ht="15.6">
+      <c r="I20" s="1"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="4:11" ht="15.6">
       <c r="D21" s="9">
         <v>10</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="23" spans="4:15" ht="15.6">
+      <c r="I21" s="1"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="23" spans="4:11" ht="15.6">
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="4:15" ht="15" thickBot="1"/>
-    <row r="25" spans="4:15">
+    <row r="24" spans="4:11" ht="15" thickBot="1"/>
+    <row r="25" spans="4:11">
       <c r="D25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20" t="s">
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="4:15">
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="4:11">
       <c r="D26" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E26" s="6">
         <v>12</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="14"/>
+      <c r="F26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="16"/>
       <c r="K26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:15">
+    <row r="27" spans="4:11">
       <c r="D27" s="5">
         <v>862408</v>
       </c>
       <c r="E27" s="6">
         <v>8</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="14"/>
+      <c r="F27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="16"/>
       <c r="K27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="4:15" ht="15.6">
+    <row r="28" spans="4:11">
       <c r="D28" s="5">
         <v>861304</v>
       </c>
       <c r="E28" s="6">
-        <v>13</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="16"/>
       <c r="K28">
         <v>2</v>
       </c>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="4:15">
-      <c r="D29" s="5">
-        <v>841110</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="14"/>
-      <c r="K29">
+    </row>
+    <row r="29" spans="4:11">
+      <c r="D29" s="10">
+        <v>841434</v>
+      </c>
+      <c r="E29" s="21">
+        <v>3</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="23"/>
+      <c r="K29" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="4:15">
+    <row r="30" spans="4:11">
       <c r="D30" s="5">
         <v>841047</v>
       </c>
       <c r="E30" s="6">
         <v>5</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="14"/>
+      <c r="F30" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="26"/>
       <c r="K30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="4:15">
+    <row r="31" spans="4:11">
       <c r="D31" s="5">
         <v>841429</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="14"/>
+      <c r="F31" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="26"/>
       <c r="K31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="4:15">
+    <row r="32" spans="4:11">
       <c r="D32" s="5">
         <v>841111</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="14"/>
+      <c r="F32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="16"/>
       <c r="K32">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="4:13">
-      <c r="K34">
+    <row r="33" spans="4:11">
+      <c r="K33">
         <f>SUM(K26:K32)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="4:13">
-      <c r="M35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="4:13">
-      <c r="D36" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
+    <row r="36" spans="4:11">
+      <c r="D36" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="J11:J15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="E17:E21"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="I31:J31"/>
@@ -1061,21 +1144,6 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="F19:F21"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="J11:J15"/>
-    <mergeCell ref="F11:F15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/.FileQuanTrong/22-23/TKB-HK1-22-23.xlsx
+++ b/.FileQuanTrong/22-23/TKB-HK1-22-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\.FileQuanTrong\22-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A176404-2246-48BC-A46A-36DEE2518CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E39B37-DAB0-454E-9477-D47E2BB3A7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>Tư tưởng HCM</t>
   </si>
   <si>
-    <t>H.T.K.Quyên</t>
-  </si>
-  <si>
     <t>Quốc phòng III</t>
   </si>
   <si>
@@ -134,18 +131,28 @@
   </si>
   <si>
     <t>TMĐT</t>
+  </si>
+  <si>
+    <t>P.T.X.Xuyến</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,14 +406,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -415,85 +422,91 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -773,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D10:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -805,15 +818,15 @@
         <v>1</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -822,72 +835,72 @@
         <v>2</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="19"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="19"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="4:10" ht="15.6">
       <c r="D13" s="9">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="19"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="4:10" ht="15.6">
       <c r="D14" s="9">
         <v>4</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="19"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="4:10" ht="15.6">
       <c r="D15" s="9">
         <v>5</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="12"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="4:10" ht="15.6">
       <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="4:11" ht="15.6">
       <c r="D17" s="9">
         <v>6</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>33</v>
+      <c r="E17" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="11" t="s">
+      <c r="I17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -899,43 +912,43 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="19"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="4:11" ht="15.6">
       <c r="D19" s="9">
         <v>8</v>
       </c>
       <c r="E19" s="30"/>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="19"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="4:11" ht="15.6">
       <c r="D20" s="9">
         <v>9</v>
       </c>
       <c r="E20" s="30"/>
-      <c r="F20" s="19"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="19"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="4:11" ht="15.6">
       <c r="D21" s="9">
         <v>10</v>
       </c>
       <c r="E21" s="31"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="12"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="23" spans="4:11" ht="15.6">
       <c r="H23" s="2"/>
@@ -949,32 +962,32 @@
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18" t="s">
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="18"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" spans="4:11">
       <c r="D26" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="6">
         <v>12</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="16"/>
+      <c r="J26" s="23"/>
       <c r="K26">
         <v>1</v>
       </c>
@@ -986,15 +999,15 @@
       <c r="E27" s="6">
         <v>8</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="16"/>
+      <c r="J27" s="23"/>
       <c r="K27">
         <v>2</v>
       </c>
@@ -1006,15 +1019,15 @@
       <c r="E28" s="6">
         <v>12</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="16"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="23"/>
       <c r="K28">
         <v>2</v>
       </c>
@@ -1023,19 +1036,19 @@
       <c r="D29" s="10">
         <v>841434</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="11">
         <v>3</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24">
+      <c r="J29" s="27"/>
+      <c r="K29" s="12">
         <v>4</v>
       </c>
     </row>
@@ -1046,15 +1059,15 @@
       <c r="E30" s="6">
         <v>5</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="26"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="19"/>
       <c r="K30">
         <v>4</v>
       </c>
@@ -1066,15 +1079,15 @@
       <c r="E31" s="6">
         <v>1</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="25" t="s">
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="26"/>
+      <c r="J31" s="19"/>
       <c r="K31">
         <v>4</v>
       </c>
@@ -1086,15 +1099,15 @@
       <c r="E32" s="6">
         <v>1</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15" t="s">
+      <c r="F32" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="16"/>
+      <c r="J32" s="23"/>
       <c r="K32">
         <v>4</v>
       </c>
@@ -1106,15 +1119,15 @@
       </c>
     </row>
     <row r="36" spans="4:11">
-      <c r="D36" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="D36" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/.FileQuanTrong/22-23/TKB-HK1-22-23.xlsx
+++ b/.FileQuanTrong/22-23/TKB-HK1-22-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\.FileQuanTrong\22-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E39B37-DAB0-454E-9477-D47E2BB3A7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E635E5-D276-4A28-8E88-3F45C6EC8416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Hai</t>
   </si>
@@ -134,18 +134,34 @@
   </si>
   <si>
     <t>P.T.X.Xuyến</t>
+  </si>
+  <si>
+    <t>PL CNTT</t>
+  </si>
+  <si>
+    <t>V.T.Hoài</t>
+  </si>
+  <si>
+    <t>Luật pháp và CNTT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,14 +422,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -422,91 +438,97 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -786,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D10:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -835,22 +857,22 @@
         <v>2</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="28"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="28"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="4:10" ht="15.6">
       <c r="D13" s="9">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="28"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="28"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="4:10" ht="15.6">
       <c r="D14" s="9">
@@ -859,11 +881,13 @@
       <c r="E14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="28"/>
+      <c r="I14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="4:10" ht="15.6">
       <c r="D15" s="9">
@@ -873,19 +897,19 @@
       <c r="F15" s="14"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="4:10" ht="15.6">
       <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="4:11" ht="15.6">
       <c r="D17" s="9">
@@ -908,42 +932,42 @@
       <c r="D18" s="9">
         <v>7</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="28"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="4:11" ht="15.6">
       <c r="D19" s="9">
         <v>8</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="28"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="4:11" ht="15.6">
       <c r="D20" s="9">
         <v>9</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="28"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="4:11" ht="15.6">
       <c r="D21" s="9">
         <v>10</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="14"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -962,15 +986,15 @@
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25" t="s">
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="25"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="26" spans="4:11">
       <c r="D26" s="10" t="s">
@@ -979,15 +1003,15 @@
       <c r="E26" s="6">
         <v>12</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="23"/>
+      <c r="J26" s="18"/>
       <c r="K26">
         <v>1</v>
       </c>
@@ -999,15 +1023,15 @@
       <c r="E27" s="6">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="23"/>
+      <c r="J27" s="18"/>
       <c r="K27">
         <v>2</v>
       </c>
@@ -1019,15 +1043,15 @@
       <c r="E28" s="6">
         <v>12</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="33" t="s">
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="23"/>
+      <c r="J28" s="18"/>
       <c r="K28">
         <v>2</v>
       </c>
@@ -1039,124 +1063,147 @@
       <c r="E29" s="11">
         <v>3</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27" t="s">
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="27"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="4:11">
-      <c r="D30" s="5">
-        <v>841047</v>
-      </c>
-      <c r="E30" s="6">
-        <v>5</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="19"/>
-      <c r="K30">
-        <v>4</v>
+      <c r="D30" s="10">
+        <v>841415</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="33"/>
+      <c r="K30" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="4:11">
       <c r="D31" s="5">
-        <v>841429</v>
+        <v>841047</v>
       </c>
       <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="27"/>
       <c r="K31">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="4:11">
       <c r="D32" s="5">
-        <v>841111</v>
+        <v>841429</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="23"/>
+      <c r="F32" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="27"/>
       <c r="K32">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="4:11">
+      <c r="D33" s="5">
+        <v>841111</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="27"/>
       <c r="K33">
-        <f>SUM(K26:K32)</f>
-        <v>21</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11">
+      <c r="K34">
+        <f>SUM(K26:K33)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="4:11">
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="29">
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="E17:E21"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="J11:J15"/>
     <mergeCell ref="F11:F15"/>
     <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F19:F21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
